--- a/biology/Zoologie/Chevalier_grivelé/Chevalier_grivelé.xlsx
+++ b/biology/Zoologie/Chevalier_grivelé/Chevalier_grivelé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chevalier_grivel%C3%A9</t>
+          <t>Chevalier_grivelé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actitis macularius
-Le Chevalier grivelé (Actitis macularius) est une espèce d'oiseaux limicoles de la famille des Scolopacidae. Cette espèce est polyandre[1]. Les femelles se battent violemment pour conquérir leurs mâles[1].
+Le Chevalier grivelé (Actitis macularius) est une espèce d'oiseaux limicoles de la famille des Scolopacidae. Cette espèce est polyandre. Les femelles se battent violemment pour conquérir leurs mâles.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chevalier_grivel%C3%A9</t>
+          <t>Chevalier_grivelé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 18 à 22 cm de longueur.
 En plumage nuptial, cet oiseau se caractérise par ses parties inférieures blanches fortement marquées de grosses taches sombres. Les parties supérieures sont brunes avec les scapulaires, les couvertures et les tertiaires barrées de noir et bordées de chamois aux extrémités. Les traits rachiaux sont noirs.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chevalier_grivel%C3%A9</t>
+          <t>Chevalier_grivelé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme le Chevalier guignette, cet oiseau marche penché vers l'avant et effectue fréquemment des mouvements nerveux de hochements de la tête et de l'arrière du corps. De même, il vole les ailes raidies, tout en émettant souvent un pîte-ouîte perçant.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chevalier_grivel%C3%A9</t>
+          <t>Chevalier_grivelé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit à vue en picorant de petites proies qu'il prélève parfois de la face inférieure des feuilles.
 </t>
